--- a/assets/excel/exp/pl/11.2.1_PL.xlsx
+++ b/assets/excel/exp/pl/11.2.1_PL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Excele rankingujące\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B91F6-6A78-447B-959D-308E56C552ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2902C0-0334-4E0B-A09C-06DFA67A7404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,150 +551,153 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
-        <v>86.4</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>85.9</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>81.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>80.599999999999994</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>80.5</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>79.7</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>79.400000000000006</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>78.7</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>78.3</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>77.599999999999994</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>77.400000000000006</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>76.8</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>76.599999999999994</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>76.5</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>76.2</v>
+        <v>77.400000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>74.3</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>67</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>75.400000000000006</v>
+        <v>78.3</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{8B565183-DC0C-4BF8-8259-36B9776F08B6}"/>
+  <sortState ref="A3:B20">
+    <sortCondition ref="A3:A20"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
